--- a/analysis/raw_data/Use-wear.xlsx
+++ b/analysis/raw_data/Use-wear.xlsx
@@ -435,7 +435,7 @@
     <t xml:space="preserve">MU-104</t>
   </si>
   <si>
-    <t xml:space="preserve">Pradnick spall</t>
+    <t xml:space="preserve">Pradnik spall</t>
   </si>
   <si>
     <t xml:space="preserve">C/E</t>
@@ -996,7 +996,7 @@
     <t xml:space="preserve">BU-115</t>
   </si>
   <si>
-    <t xml:space="preserve">Pradnick scraper</t>
+    <t xml:space="preserve">Pradnik scraper</t>
   </si>
   <si>
     <t xml:space="preserve">14:58:28</t>
@@ -1755,7 +1755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -27874,7 +27874,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
